--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3073647.670749103</v>
+        <v>3071760.0892327</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481168</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>82.66503819426744</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>97.36779394167134</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>23.3289799064248</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>169.3331719059346</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481168</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>327.1387951101884</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.7268375758688</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>205.3743261851594</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>75.93999108643294</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>110.1458031968981</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>208.279329433658</v>
+        <v>201.1407479991918</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896929</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>164.2419997914796</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>6.348656829617719</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>26.97444673954882</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>161.8175117958953</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>169.743810140442</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>181.6292254718853</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>23.54872654977437</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>59.77945773664924</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>37.7586278237684</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>206.8064269214848</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>33.35146980185893</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>183.4653217847137</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965516</v>
+        <v>93.41221638965541</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801197</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437405</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>94.49473006087595</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897893</v>
+        <v>78.22041541354999</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>55.21598883571505</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523585</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463131</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1387.069036214947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,10 +4346,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2163.808208254881</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2163.808208254881</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2163.808208254881</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2163.808208254881</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1773.668876279069</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
@@ -4422,28 +4422,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>629.7776771946453</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>415.489254012808</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>415.489254012808</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="U4" t="n">
-        <v>415.489254012808</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V4" t="n">
-        <v>415.489254012808</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>415.489254012808</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>415.489254012808</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>415.489254012808</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>768.2839875620916</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>399.3214706216799</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358873</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358873</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4562,55 +4562,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862887</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862887</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157407</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887293</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626213</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626213</v>
+        <v>1387.069036214947</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,46 +4641,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064346</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064346</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822952</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.241224882541</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>961.9755262757901</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>576.1872736775458</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>165.2013688879383</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4835,19 +4835,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4887,10 +4887,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="V10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795208</v>
@@ -5063,28 +5063,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,19 +5115,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683721</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>843.9666117966292</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W13" t="n">
-        <v>843.9666117966292</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="X13" t="n">
-        <v>615.9770608986119</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y13" t="n">
-        <v>615.9770608986119</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>229.0333923118335</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>378.1030765138935</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>624.8682044203576</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>932.1883377003194</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>124.4640073588201</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>800.6837097077203</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="W16" t="n">
-        <v>754.8946022306075</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X16" t="n">
-        <v>526.90505133259</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y16" t="n">
-        <v>306.1124721890599</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5528,13 +5528,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028587</v>
@@ -5671,13 +5671,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765185</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952639</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,10 +5738,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,19 +5750,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>289.9398668627124</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="C22" t="n">
-        <v>121.0036839348054</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="D22" t="n">
-        <v>121.0036839348054</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="E22" t="n">
-        <v>121.0036839348054</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="F22" t="n">
-        <v>121.0036839348054</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="G22" t="n">
-        <v>121.0036839348054</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="W22" t="n">
-        <v>920.3704617344997</v>
+        <v>385.5899330013832</v>
       </c>
       <c r="X22" t="n">
-        <v>692.3809108364823</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="Y22" t="n">
-        <v>471.5883316929521</v>
+        <v>157.6003821033659</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028596</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028596</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028596</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028596</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6145,52 +6145,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557901</v>
+        <v>1460.776242453086</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1460.776242453086</v>
       </c>
       <c r="T25" t="n">
-        <v>1090.100879744681</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="V25" t="n">
-        <v>835.4163915387942</v>
+        <v>982.3063390367043</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018335</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038161</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028596</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,22 +6236,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954969</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1313.597763704656</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1089.812348494162</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>800.6837097077201</v>
+        <v>675.0071030383443</v>
       </c>
       <c r="V28" t="n">
-        <v>545.9992215018333</v>
+        <v>420.3226148324575</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>130.9054447954969</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>130.9054447954969</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954969</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6476,16 +6476,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>380.9740019042124</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>627.7391298106764</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>620.7342676598926</v>
+        <v>439.5324299542164</v>
       </c>
       <c r="C31" t="n">
-        <v>620.7342676598926</v>
+        <v>326.3571123076802</v>
       </c>
       <c r="D31" t="n">
-        <v>526.3784935289277</v>
+        <v>232.0013381767151</v>
       </c>
       <c r="E31" t="n">
-        <v>434.2262652279055</v>
+        <v>232.0013381767151</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0971830113663</v>
+        <v>232.0013381767151</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276532</v>
+        <v>232.0013381767151</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667504</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386982</v>
+        <v>902.6804289818916</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220518</v>
+        <v>730.451743365245</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598926</v>
+        <v>565.4200295030855</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6707,19 +6707,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>261.8048459311032</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>410.874530133163</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>452.0983189327497</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>698.8634468392138</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,19 +7184,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>921.5583256030199</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083207</v>
@@ -7324,19 +7324,19 @@
         <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,7 +7567,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>190.6805289025653</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,13 +7801,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649693</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270191</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270191</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.658803395178</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050814</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>392.1113620226429</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>91.23759968302019</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,16 +9015,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445214</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>414.5002179180831</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,19 +9960,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>145.2351313103795</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>94.13752431970616</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>165.9802687929762</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>80.50021372615237</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>52.49733361305233</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>87.89564353234843</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>280.1743415069733</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>140.272374359079</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>124.419840602682</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>82.39383318338596</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>44.08042991715186</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>125.3651018177618</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>50.63978772762275</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>72.20572458002439</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>14.74113413690452</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>133.8953512967689</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>14.45548819888959</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801223</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943743</v>
       </c>
       <c r="G31" t="n">
-        <v>16.79558177394445</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>15.49015632542936</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523561</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>750084.1514670786</v>
+        <v>750084.1514670787</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>750084.1514670786</v>
+        <v>750084.1514670787</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>750084.1514670786</v>
+        <v>750084.1514670787</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>750084.1514670786</v>
+        <v>750084.1514670787</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780090.9989214451</v>
+        <v>780090.998921445</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914264</v>
-      </c>
-      <c r="C2" t="n">
-        <v>656833.4158914264</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
         <v>625646.4955803339</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803335</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803338</v>
       </c>
       <c r="H2" t="n">
+        <v>625646.4955803336</v>
+      </c>
+      <c r="I2" t="n">
         <v>625646.4955803338</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.495580334</v>
       </c>
       <c r="J2" t="n">
         <v>625646.4955803339</v>
       </c>
       <c r="K2" t="n">
-        <v>650915.4197524315</v>
+        <v>650915.4197524318</v>
       </c>
       <c r="L2" t="n">
         <v>656833.415891427</v>
       </c>
       <c r="M2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="N2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="O2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914273</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284554</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086676</v>
+        <v>10342.90680086697</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284555</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,40 +26424,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600742</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.73165600745</v>
+        <v>7916.731656007414</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007458</v>
+        <v>7916.731656007455</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007545</v>
+        <v>7916.731656007538</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020406</v>
+        <v>26081.35417020398</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,7 +26491,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,16 +26500,16 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163910.5901024486</v>
+        <v>-163910.5901024482</v>
       </c>
       <c r="C6" t="n">
+        <v>426057.2891120962</v>
+      </c>
+      <c r="D6" t="n">
         <v>426057.2891120961</v>
       </c>
-      <c r="D6" t="n">
-        <v>426057.2891120962</v>
-      </c>
       <c r="E6" t="n">
-        <v>582.4014987136034</v>
+        <v>484.9423727412354</v>
       </c>
       <c r="F6" t="n">
-        <v>525742.4379756097</v>
+        <v>525644.9788496373</v>
       </c>
       <c r="G6" t="n">
-        <v>525742.43797561</v>
+        <v>525644.9788496376</v>
       </c>
       <c r="H6" t="n">
-        <v>525742.4379756097</v>
+        <v>525644.9788496377</v>
       </c>
       <c r="I6" t="n">
-        <v>525742.4379756098</v>
+        <v>525644.9788496374</v>
       </c>
       <c r="J6" t="n">
-        <v>349319.2187830168</v>
+        <v>349221.7596570446</v>
       </c>
       <c r="K6" t="n">
-        <v>484043.251749159</v>
+        <v>484024.7580112251</v>
       </c>
       <c r="L6" t="n">
-        <v>518439.8843732069</v>
+        <v>518439.8843732066</v>
       </c>
       <c r="M6" t="n">
-        <v>393981.7759402362</v>
+        <v>393981.7759402365</v>
       </c>
       <c r="N6" t="n">
-        <v>528782.7911740734</v>
+        <v>528782.7911740738</v>
       </c>
       <c r="O6" t="n">
-        <v>528782.7911740736</v>
+        <v>528782.7911740737</v>
       </c>
       <c r="P6" t="n">
-        <v>484620.1858712275</v>
+        <v>484620.1858712284</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,16 +26744,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26768,16 +26768,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108345</v>
+        <v>12.92863350108372</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>7.983128723806658</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>168.5591293140218</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.202682480856311e-13</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491429</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>49.29739803848649</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>201.7061255516595</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>185.3498697147483</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>22.10217360722464</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060685</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491429</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>13.21032716693534</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>306.7938505770476</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>303.6383668238969</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>43.85831389017002</v>
+        <v>50.9968953246362</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.406874616804998e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28333,13 +28333,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.05766345930489e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855695</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,22 +31045,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
         <v>255.8615389119866</v>
@@ -31069,19 +31069,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31239,7 +31239,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31297,7 +31297,7 @@
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119866</v>
@@ -31306,19 +31306,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,31 +31355,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
         <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31476,7 +31476,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>725.3059354206558</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>133.1477786379269</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560244</v>
@@ -35735,16 +35735,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>747.6947913160961</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,19 +36206,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556545</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206028</v>
@@ -36604,7 +36604,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,19 +36680,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36768,10 +36768,10 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>244.7129629076454</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412246</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043169</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>166.2502570412296</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37160,13 +37160,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>316.5557073809155</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>390.9245907766187</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>534.360840609957</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>94.40751256795902</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
